--- a/Drawoffs_Overview.xlsx
+++ b/Drawoffs_Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasgrossmann/git_repos/OpenDHW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90527CBF-53F6-E74C-B32B-D4540E96A833}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF2A057-2053-7247-836B-709C8D8F3EA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="32760" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DHWcalc_4categories" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Category</t>
   </si>
@@ -82,12 +82,6 @@
     <t>m^3/day</t>
   </si>
   <si>
-    <t>V_(W;f;day) * f / 1000</t>
-  </si>
-  <si>
-    <t>Formel</t>
-  </si>
-  <si>
     <t>Wert</t>
   </si>
   <si>
@@ -151,14 +145,53 @@
     <t>L/day</t>
   </si>
   <si>
-    <t>V_(W;f;day) * f</t>
+    <t>if Ah bigger than 70</t>
+  </si>
+  <si>
+    <t>N_max1</t>
+  </si>
+  <si>
+    <t>if Ah smaller that 30</t>
+  </si>
+  <si>
+    <t>if Ah between 30 and 70</t>
+  </si>
+  <si>
+    <t>N_max2</t>
+  </si>
+  <si>
+    <t>N_max3</t>
+  </si>
+  <si>
+    <t>Wohnfläche [m2]</t>
+  </si>
+  <si>
+    <t>Wasserbedarf Haus [L]</t>
+  </si>
+  <si>
+    <t>N_adeq1</t>
+  </si>
+  <si>
+    <t>N_adeq2</t>
+  </si>
+  <si>
+    <t>if N_max &gt; 1,75</t>
+  </si>
+  <si>
+    <t>if N_max &lt; 1,75</t>
+  </si>
+  <si>
+    <t>Based on DIN12831</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,8 +199,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +227,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -398,11 +451,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -420,9 +612,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -925,164 +1140,288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6CADBB-9F1A-554E-9610-E72E95602A21}">
-  <dimension ref="B3:G12"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>150</v>
+      </c>
+      <c r="F5" s="19">
+        <f>D10</f>
+        <v>95.668500000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:6" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="28">
+        <f>D11*D12/1000</f>
+        <v>9.5668500000000004E-2</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="28">
+        <f>D11*D12</f>
+        <v>95.668500000000009</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="29">
+        <f>MIN(D20,D21*D19/D14)</f>
+        <v>40.71</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="30">
+        <f>IF(D15&lt;1.75,D13,D14)</f>
+        <v>2.35</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="29">
+        <f>D15</f>
+        <v>3.75</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="31">
+        <f>1.75 + 0.3*(D15-1.75)</f>
+        <v>2.35</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="30">
+        <f>IF(D19&lt;30,D16,IF(D19&gt;70,D18,D17))</f>
+        <v>3.75</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="29">
+        <f>1.75-0.018*(70-D19)</f>
+        <v>3.19</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="31">
+        <f>D19*0.025</f>
+        <v>3.75</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="29">
+        <f>B5</f>
+        <v>150</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="C20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="29">
+        <v>40.71</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <f>E7*E8/1000</f>
-        <v>9.5668500000000004E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <f>E7*E8</f>
-        <v>95.668500000000009</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <f>MIN(E11,E12*E10/E8)</f>
-        <v>40.71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <f>1.75+0.3*(E9-1.75)</f>
-        <v>2.35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <f>E10*0.025</f>
-        <v>3.75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>150</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="31">
+        <v>3.26</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11">
-        <v>40.71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3.26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
+      <c r="F21" s="23"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F33382E1-78BB-D74E-BE40-4D33A01CFDD3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>